--- a/similarities/split_global/harmonic_similarity_timestamps_222.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,770 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:maj'], ['G#:7', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:10.200000'), ('0:00:08.480000', '0:00:10.780000')]</t>
+          <t>('0:02:18.800000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:43.660000', '0:00:47.360000'), ('0:00:44.860000', '0:00:48')]</t>
+          <t>('0:00:03.129454', '0:00:05.822970')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=43.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=44.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A']]</t>
+          <t>['D/7', 'A/3', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:00:20.220000', '0:00:25.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:33.600000')]</t>
+          <t>('0:00:11.062412', '0:00:12.567886')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:13.155000', '0:00:20.379000')]</t>
+          <t>('0:02:01.740000', '0:02:03.780000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:16.192174', '0:00:27.488682')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=121.74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'F:maj6', 'C', 'G', 'A:min']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:min7/b7', 'C:maj', 'G:maj', 'A:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:36.368820', '0:00:48.605736')]</t>
+          <t>('0:00:31.840929', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:22.889000', '0:00:30.761000')]</t>
+          <t>('0:01:54.520000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=36.36882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=22.889']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:50.580000', '0:00:59.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:36.140000', '0:00:37.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=50.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.14</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G#/C', 'D#:7/A#', 'G#/C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Cb', 'Gb:7', 'Cb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:00:50.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:46.759000', '0:00:50.551000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=50.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'D/3', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000')]</t>
+          <t>('0:00:27.920000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:14.414000', '0:00:17.044000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=27.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Db:maj6']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G', 'A:min7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.840000', '0:01:26.060000')]</t>
+          <t>('0:00:03.100000', '0:00:06.490000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
+          <t>('0:00:41.700000', '0:00:46.650000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=3.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=41.7</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:35.140000', '0:00:39.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000'), ('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
